--- a/others/量化投资/THS/自动化交易_同花顺/data/组合今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/组合今天调仓.xlsx
@@ -486,11 +486,11 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>45673.44097222222</v>
+        <v>45674.39652777778</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SALE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -508,12 +508,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>10.03%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>0.00%</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -524,11 +524,11 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>45673.54791666667</v>
+        <v>45674.39791666667</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SALE</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>国盛金控</t>
+          <t>天下秀</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13.36</v>
+        <v>6.67</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9.73%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>45672.39791666667</v>
+        <v>45674.42152777778</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -576,15 +576,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>铭科精技</t>
+          <t>国盛金控</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>26.28</v>
+        <v>13.97</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10.21%</t>
+          <t>5.20%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">

--- a/others/量化投资/THS/自动化交易_同花顺/data/组合今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/组合今天调仓.xlsx
@@ -482,15 +482,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>波段突击战法</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>45674.39652777778</v>
+        <v>45678.61180555556</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SALE</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -500,20 +500,20 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>福莱特</t>
+          <t>东百集团</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>20.8</v>
+        <v>8.07</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10.03%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>45674.39791666667</v>
+        <v>45677.40902777778</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -538,11 +538,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>天下秀</t>
+          <t>中粮资本</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6.67</v>
+        <v>13.19</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>

--- a/others/量化投资/THS/自动化交易_同花顺/data/组合今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/组合今天调仓.xlsx
@@ -482,15 +482,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>波段突击战法</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>45678.61180555556</v>
+        <v>45679.39722222222</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SALE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -500,31 +500,31 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>东百集团</t>
+          <t>景兴纸业</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8.07</v>
+        <v>3.6</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>9.81%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>0.00%</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>波段突击战法</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>45677.40902777778</v>
+        <v>45679.41319444445</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -538,20 +538,20 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>中粮资本</t>
+          <t>东百集团</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13.19</v>
+        <v>7.7</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>19.35%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>

--- a/others/量化投资/THS/自动化交易_同花顺/data/组合今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/组合今天调仓.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>新比例</t>
         </is>
       </c>
@@ -482,11 +487,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>稳扎稳打66</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>45679.39722222222</v>
+        <v>45698.42361111111</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -500,15 +505,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>景兴纸业</t>
+          <t>浙江世宝</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.6</v>
+        <v>12.84</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9.81%</t>
+          <t>19.82%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -516,15 +521,16 @@
           <t>0.00%</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>波段突击战法</t>
+          <t>梦想1号</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>45679.41319444445</v>
+        <v>45695.47638888889</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -538,15 +544,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>东百集团</t>
+          <t>中信重工</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7.7</v>
+        <v>4.16</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19.35%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">

--- a/others/量化投资/THS/自动化交易_同花顺/data/组合今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/组合今天调仓.xlsx
@@ -487,11 +487,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>稳扎稳打66</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>45698.42361111111</v>
+        <v>45702.42777777778</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -505,20 +505,20 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>浙江世宝</t>
+          <t>富森美</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12.84</v>
+        <v>13.43</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19.82%</t>
+          <t>19.90%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -526,15 +526,15 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>梦想1号</t>
+          <t>稳扎稳打66</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>45695.47638888889</v>
+        <v>45701.54861111111</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SALE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -544,35 +544,35 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>中信重工</t>
+          <t>欧菲光</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.16</v>
+        <v>14.18</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>9.97%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>0.00%</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>稳扎稳打66</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>45674.42152777778</v>
+        <v>45700.61180555556</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SALE</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -582,20 +582,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>国盛金控</t>
+          <t>欧菲光</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>13.97</v>
+        <v>13.92</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.20%</t>
+          <t>19.94%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
